--- a/data/public/allSubjectsCollate.xlsx
+++ b/data/public/allSubjectsCollate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/raj925.github.io/data/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{041B881F-0B9C-8649-A9D0-B222E15E161D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{77AF99CB-C065-CD4A-9B54-476E22E94CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19640" yWindow="800" windowWidth="21380" windowHeight="17400"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="21380" windowHeight="17400"/>
   </bookViews>
   <sheets>
     <sheet name="allSubjects" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allSubjects!$A$1:$AN$39</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -355,9 +363,6 @@
     <t>5c1fea2d29d54a0001f3e932</t>
   </si>
   <si>
-    <t>5d250d243eea32001a079a3b</t>
-  </si>
-  <si>
     <t>5c0ae93ec1a5a60001a560b6</t>
   </si>
   <si>
@@ -371,6 +376,9 @@
   </si>
   <si>
     <t>5deec85bd6149056a336c8ec</t>
+  </si>
+  <si>
+    <t>5db31089a1f8d3000c10a6c5</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1261,7 @@
   <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2121,7 +2129,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -2365,7 +2373,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -3585,7 +3593,7 @@
         <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>42</v>
@@ -4683,7 +4691,7 @@
         <v>76</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -5049,7 +5057,7 @@
         <v>75</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>40</v>
@@ -5415,7 +5423,7 @@
         <v>78</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -6023,5 +6031,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>